--- a/data/allsosdata.xlsx
+++ b/data/allsosdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E58FB5-65D3-5244-8157-A070238BE2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FC4251-7BC0-9741-B977-136C8A95235B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="1000" windowWidth="27000" windowHeight="16440" xr2:uid="{81633FED-B07D-384C-A853-AE329AEA5458}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22003" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22883" uniqueCount="43">
   <si>
     <t>Genotype</t>
   </si>
@@ -571,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AC237C-5FED-4F4A-962B-8AA010208240}">
-  <dimension ref="A1:L3938"/>
+  <dimension ref="A1:L4104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3491" workbookViewId="0">
-      <selection activeCell="B3867" sqref="B3867:B3938"/>
+    <sheetView tabSelected="1" topLeftCell="A3817" workbookViewId="0">
+      <selection activeCell="E3825" sqref="E3825"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -98144,6 +98144,3941 @@
         <v>45433</v>
       </c>
     </row>
+    <row r="3939" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3939" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3939" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3939" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3939">
+        <v>3.71</v>
+      </c>
+      <c r="H3939" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3939" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3940" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3940" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3940" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3940" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3940">
+        <v>13.56</v>
+      </c>
+      <c r="H3940" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3940" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3941" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3941" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3941" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3941" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3941">
+        <v>7.57</v>
+      </c>
+      <c r="H3941" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3941" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3942" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3942" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3942" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3942" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3942">
+        <v>15.11</v>
+      </c>
+      <c r="H3942" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3942" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3943" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3943" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3943" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3943" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3943">
+        <v>3.33</v>
+      </c>
+      <c r="H3943" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3943" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3944" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3944" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3944" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3944" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3944">
+        <v>9.42</v>
+      </c>
+      <c r="H3944" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3944" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3945" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3945" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3945" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3945" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3945">
+        <v>6.33</v>
+      </c>
+      <c r="H3945" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3945" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3946" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3946" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3946" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3946" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3946">
+        <v>4.25</v>
+      </c>
+      <c r="H3946" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3946" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3947" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3947" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3947" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3947" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3947">
+        <v>1.67</v>
+      </c>
+      <c r="H3947" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3947" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3948" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3948" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3948" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3948" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3948">
+        <v>2.82</v>
+      </c>
+      <c r="H3948" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3948" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3949" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3949" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3949" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3949" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3949">
+        <v>3.63</v>
+      </c>
+      <c r="H3949" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3949" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3950" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3950" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3950" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3950" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3950">
+        <v>14.86</v>
+      </c>
+      <c r="H3950" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3950" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3951" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3951" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3951" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3951" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3951">
+        <v>3.05</v>
+      </c>
+      <c r="H3951" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3951" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3952" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3952" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3952" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3952" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3952">
+        <v>5.4</v>
+      </c>
+      <c r="H3952" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3952" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3953" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3953" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3953" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3953" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3953">
+        <v>5.18</v>
+      </c>
+      <c r="H3953" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3953" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3954" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3954" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3954" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3954" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3954">
+        <v>1.03</v>
+      </c>
+      <c r="H3954" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3954" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3955" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3955" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3955" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3955" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3955" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3955" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3955">
+        <v>2.76</v>
+      </c>
+      <c r="H3955" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3955" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3956" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3956" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3956" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3956" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3956" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3956" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3956">
+        <v>12.89</v>
+      </c>
+      <c r="H3956" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3956" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3957" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3957" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3957" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3957" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3957" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3957" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3957">
+        <v>2.73</v>
+      </c>
+      <c r="H3957" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3957" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3958" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3958" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3958" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3958" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3958" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3958" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3958">
+        <v>12.7</v>
+      </c>
+      <c r="H3958" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3958" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3959" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3959" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3959" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3959" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3959" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3959" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3959">
+        <v>11.89</v>
+      </c>
+      <c r="H3959" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3959" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3960" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3960" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3960" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3960" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3960" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3960" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3960">
+        <v>4.95</v>
+      </c>
+      <c r="H3960" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3960" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3961" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3961" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3961" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3961" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3961" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3961" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3961">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H3961" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3961" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3962" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3962" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3962" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3962" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3962" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3962" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3962">
+        <v>6.31</v>
+      </c>
+      <c r="H3962" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3962" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3963" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3963" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3963" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3963" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3963" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3963" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3963">
+        <v>8.15</v>
+      </c>
+      <c r="H3963" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3963" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3964" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3964" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3964" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3964" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3964" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3964" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3964" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3964" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3965" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3965" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3965" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3965" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3965" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3965" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3965">
+        <v>5.62</v>
+      </c>
+      <c r="H3965" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3965" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3966" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3966" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3966" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3966" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3966" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3966" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3966">
+        <v>1.28</v>
+      </c>
+      <c r="H3966" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3966" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3967" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3967" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3967" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3967" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3967" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3967" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3967">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="H3967" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3967" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3968" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3968" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3968" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3968" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3968" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3968" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3968">
+        <v>7.12</v>
+      </c>
+      <c r="H3968" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3968" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3969" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3969" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3969" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3969" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3969" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3969" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3969">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H3969" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3969" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3970" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3970" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3970" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3970" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3970" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3970" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3970">
+        <v>1.7</v>
+      </c>
+      <c r="H3970" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3970" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3971" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3971" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3971" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3971" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3971" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3971" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3971">
+        <v>3.8</v>
+      </c>
+      <c r="H3971" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3971" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3972" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3972" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3972" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3972" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3972" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3972" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3972">
+        <v>3.09</v>
+      </c>
+      <c r="H3972" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3972" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3973" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3973" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3973" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3973" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3973" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3973" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3973">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H3973" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3973" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3974" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3974" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3974" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3974" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3974" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3974" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3974">
+        <v>4.78</v>
+      </c>
+      <c r="H3974" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3974" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3975" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3975" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3975" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3975" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3975" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3975" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3975">
+        <v>6.13</v>
+      </c>
+      <c r="H3975" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3975" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3976" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3976" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3976" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3976" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3976" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3976" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3976">
+        <v>9.35</v>
+      </c>
+      <c r="H3976" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3976" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3977" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3977" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3977" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3977" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3977" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3977" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3977">
+        <v>14.07</v>
+      </c>
+      <c r="H3977" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3977" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3978" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3978" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3978" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3978" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3978" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3978" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3978">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="H3978" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3978" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3979" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3979" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3979" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3979" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3979" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3979" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3979">
+        <v>1.38</v>
+      </c>
+      <c r="H3979" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3979" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3980" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3980" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3980" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3980" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3980" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3980" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3980">
+        <v>6.55</v>
+      </c>
+      <c r="H3980" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3980" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3981" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3981" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3981" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3981" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3981" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3981" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3981">
+        <v>2.83</v>
+      </c>
+      <c r="H3981" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3981" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3982" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3982" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3982" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3982" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3982" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3982" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3982">
+        <v>1.56</v>
+      </c>
+      <c r="H3982" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3982" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3983" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3983" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3983" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3983" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3983" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3983" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3983" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3983" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3984" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3984" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3984" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3984" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3984" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3984" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3984">
+        <v>13.51</v>
+      </c>
+      <c r="H3984" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3984" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3985" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3985" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3985" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3985" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3985" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3985" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3985">
+        <v>9.5</v>
+      </c>
+      <c r="H3985" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3985" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3986" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3986" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3986" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3986" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3986" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3986" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3986">
+        <v>2.87</v>
+      </c>
+      <c r="H3986" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3986" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3987" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3987" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3987" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3987" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3987" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3987" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3987">
+        <v>11.57</v>
+      </c>
+      <c r="H3987" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3987" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3988" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3988" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3988" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3988" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3988" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3988" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3988">
+        <v>7.23</v>
+      </c>
+      <c r="H3988" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3988" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3989" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3989" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3989" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3989" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3989" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3989" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3989">
+        <v>1.95</v>
+      </c>
+      <c r="H3989" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3989" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3990" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3990" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3990" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3990" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3990" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3990" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3990">
+        <v>2.16</v>
+      </c>
+      <c r="H3990" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3990" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3991" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3991" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3991" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3991" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3991" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3991" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3991">
+        <v>5.23</v>
+      </c>
+      <c r="H3991" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3991" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3992" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3992" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3992" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3992" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3992" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3992" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3992">
+        <v>3.35</v>
+      </c>
+      <c r="H3992" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3992" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3993" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3993" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3993" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3993" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3993">
+        <v>12.18</v>
+      </c>
+      <c r="H3993" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3993" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3994" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3994" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3994" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3994" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3994">
+        <v>11.74</v>
+      </c>
+      <c r="H3994" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3994" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3995" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3995" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3995" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3995" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3995">
+        <v>8.15</v>
+      </c>
+      <c r="H3995" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3995" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3996" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3996" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3996" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3996" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3996">
+        <v>6</v>
+      </c>
+      <c r="H3996" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3996" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3997" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3997" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3997" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3997" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3997">
+        <v>4.8</v>
+      </c>
+      <c r="H3997" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3997" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3998" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3998" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3998" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3998" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3998">
+        <v>9.42</v>
+      </c>
+      <c r="H3998" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3998" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="3999" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3999" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3999" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3999" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3999">
+        <v>3.83</v>
+      </c>
+      <c r="H3999" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3999" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4000" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4000" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4000" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4000" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4000">
+        <v>5.95</v>
+      </c>
+      <c r="H4000" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4000" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4001" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4001" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4001" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4001" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4001">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="H4001" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4001" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4002" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4002" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4002" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4002" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4002">
+        <v>11.24</v>
+      </c>
+      <c r="H4002" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4002" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4003" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4003" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4003" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4003" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4003">
+        <v>7.42</v>
+      </c>
+      <c r="H4003" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4003" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4004" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4004" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4004" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4004" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4004">
+        <v>2.08</v>
+      </c>
+      <c r="H4004" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4004" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4005" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4005" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4005" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4005" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4005">
+        <v>5.28</v>
+      </c>
+      <c r="H4005" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4005" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4006" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4006" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4006" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4006" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4006">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H4006" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4006" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4007" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4007" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4007" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4007" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4007">
+        <v>2.79</v>
+      </c>
+      <c r="H4007" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4007" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4008" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4008" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4008" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4008" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4008">
+        <v>5.32</v>
+      </c>
+      <c r="H4008" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4008" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4009" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4009" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4009" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4009" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4009">
+        <v>4.62</v>
+      </c>
+      <c r="H4009" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4009" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4010" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4010" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4010" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4010" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4010">
+        <v>9.15</v>
+      </c>
+      <c r="H4010" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4010" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4011" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4011" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4011" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4011" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4011">
+        <v>5.17</v>
+      </c>
+      <c r="H4011" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4011" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4012" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4012" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4012" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4012" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4012">
+        <v>17.11</v>
+      </c>
+      <c r="H4012" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4012" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4013" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4013" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4013" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4013" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4013">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="H4013" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4013" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4014" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4014" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4014" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4014" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4014" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4014" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4014">
+        <v>1.32</v>
+      </c>
+      <c r="H4014" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4014" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4015" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4015" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4015" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4015" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4015" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4015" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4015">
+        <v>13.27</v>
+      </c>
+      <c r="H4015" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4015" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4016" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4016" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4016" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4016" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4016" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4016" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4016">
+        <v>9.19</v>
+      </c>
+      <c r="H4016" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4016" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4017" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4017" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4017" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4017" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4017" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4017" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4017">
+        <v>4.63</v>
+      </c>
+      <c r="H4017" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4017" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4018" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4018" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4018" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4018" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4018" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4018" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4018">
+        <v>15.81</v>
+      </c>
+      <c r="H4018" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4018" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4019" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4019" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4019" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4019" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4019" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4019" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4019">
+        <v>5.99</v>
+      </c>
+      <c r="H4019" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4019" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4020" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4020" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4020" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4020" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4020" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4020" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4020">
+        <v>5.95</v>
+      </c>
+      <c r="H4020" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4020" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4021" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4021" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4021" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4021" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4021" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4021" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4021">
+        <v>9.19</v>
+      </c>
+      <c r="H4021" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4021" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4022" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4022" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4022" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4022" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4022" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4022" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4022">
+        <v>13.02</v>
+      </c>
+      <c r="H4022" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4022" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4023" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4023" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4023" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4023" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4023" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4023" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4023">
+        <v>8.51</v>
+      </c>
+      <c r="H4023" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4023" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4024" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4024" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4024" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4024" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4024" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4024" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4024">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H4024" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4024" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4025" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4025" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4025" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4025" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4025" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4025" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4025">
+        <v>2.86</v>
+      </c>
+      <c r="H4025" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4025" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4026" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4026" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4026" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4026" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4026" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4026" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4026">
+        <v>13.9</v>
+      </c>
+      <c r="H4026" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4026" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4027" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4027" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4027" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4027" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4027" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4027" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4027">
+        <v>10.02</v>
+      </c>
+      <c r="H4027" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4027" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4028" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4028" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4028" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4028" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4028" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4028" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4028" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4028" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4029" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4029" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4029" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4029" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4029" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4029" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4029">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="H4029" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4029" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4030" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4030" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4030" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4030" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4030" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4030" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4030">
+        <v>15.47</v>
+      </c>
+      <c r="H4030" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4030" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4031" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4031" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4031" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4031" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4031" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4031" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4031">
+        <v>6.22</v>
+      </c>
+      <c r="H4031" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4031" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4032" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4032" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4032" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4032" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4032" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4032" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4032">
+        <v>6.75</v>
+      </c>
+      <c r="H4032" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4032" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4033" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4033" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4033" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4033" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4033" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4033" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4033">
+        <v>7.83</v>
+      </c>
+      <c r="H4033" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4033" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4034" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4034" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4034" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4034" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4034" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4034" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4034">
+        <v>11.95</v>
+      </c>
+      <c r="H4034" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4034" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4035" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4035" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4035" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4035" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4035" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4035" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4035">
+        <v>6.46</v>
+      </c>
+      <c r="H4035" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4035" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4036" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4036" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4036" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4036" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4036" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4036" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4036">
+        <v>13.91</v>
+      </c>
+      <c r="H4036" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4036" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4037" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4037" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4037" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4037" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4037" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4037" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4037">
+        <v>14.85</v>
+      </c>
+      <c r="H4037" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4037" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4038" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4038" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4038" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4038" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4038" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4038" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4038">
+        <v>6.08</v>
+      </c>
+      <c r="H4038" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4038" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4039" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4039" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4039" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4039" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4039" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4039" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4039">
+        <v>5.22</v>
+      </c>
+      <c r="H4039" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4039" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4040" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4040" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4040" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4040" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4040" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4040" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4040">
+        <v>7.65</v>
+      </c>
+      <c r="H4040" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4040" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4041" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4041" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4041" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4041" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4041" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4041" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4041">
+        <v>9.77</v>
+      </c>
+      <c r="H4041" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4041" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4042" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4042" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4042" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4042" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4042" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4042" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4042">
+        <v>5.93</v>
+      </c>
+      <c r="H4042" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4042" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4043" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4043" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4043" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4043" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4043" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4043" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4043">
+        <v>9.27</v>
+      </c>
+      <c r="H4043" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4043" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4044" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4044" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4044" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4044" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4044" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4044" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4044">
+        <v>12.17</v>
+      </c>
+      <c r="H4044" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4044" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4045" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4045" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4045" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4045" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4045" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4045" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4045">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="H4045" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4045" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4046" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4046" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4046" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4046" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4046" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4046" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4046">
+        <v>3.37</v>
+      </c>
+      <c r="H4046" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4046" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4047" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4047" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4047" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4047" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4047">
+        <v>6.2</v>
+      </c>
+      <c r="H4047" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4047" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4048" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4048" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4048" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4048" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4048">
+        <v>6.11</v>
+      </c>
+      <c r="H4048" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4048" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4049" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4049" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4049" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4049" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4049">
+        <v>1.98</v>
+      </c>
+      <c r="H4049" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4049" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4050" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4050" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4050" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4050" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4050">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="H4050" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4050" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4051" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4051" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4051" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4051" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4051">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H4051" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4051" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4052" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4052" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4052" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4052" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4052" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4052" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4053" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4053" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4053" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4053" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4053">
+        <v>3.21</v>
+      </c>
+      <c r="H4053" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4053" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4054" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4054" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4054" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4054" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4054">
+        <v>14.91</v>
+      </c>
+      <c r="H4054" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4054" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4055" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4055" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4055" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4055" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4055">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H4055" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4055" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4056" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4056" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4056" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4056" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4056">
+        <v>18.77</v>
+      </c>
+      <c r="H4056" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4056" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4057" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4057" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4057" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4057" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4057">
+        <v>10.95</v>
+      </c>
+      <c r="H4057" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4057" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4058" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4058" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4058" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4058" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4058" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4058" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4059" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4059" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4059" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4059" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4059">
+        <v>16.91</v>
+      </c>
+      <c r="H4059" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4059" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4060" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4060" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4060" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4060" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4060">
+        <v>9.65</v>
+      </c>
+      <c r="H4060" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4060" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4061" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4061" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4061" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4061">
+        <v>9.51</v>
+      </c>
+      <c r="H4061" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4061" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4062" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4062" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4062" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4062" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4062">
+        <v>10.67</v>
+      </c>
+      <c r="H4062" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4062" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4063" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4063" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4063" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4063" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4063" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4063" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4064" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4064" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4064" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4064" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4064">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="H4064" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4064" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4065" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4065" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4065" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4065">
+        <v>1.73</v>
+      </c>
+      <c r="H4065" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4065" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4066" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4066" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4066" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4066">
+        <v>10.29</v>
+      </c>
+      <c r="H4066" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4066" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4067" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4067" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4067" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4067">
+        <v>6.32</v>
+      </c>
+      <c r="H4067" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4067" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4068" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4068" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4068" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4068" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4068" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4068">
+        <v>9.33</v>
+      </c>
+      <c r="H4068" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4068" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4069" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4069" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4069" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4069" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4069" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4069">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="H4069" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4069" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4070" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4070" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4070" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4070" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4070" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4070" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4070">
+        <v>19.59</v>
+      </c>
+      <c r="H4070" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4070" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4071" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4071" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4071" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4071" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4071" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4071" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4071">
+        <v>5.33</v>
+      </c>
+      <c r="H4071" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4071" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4072" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4072" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4072" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4072" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4072" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4072" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4072">
+        <v>3.1</v>
+      </c>
+      <c r="H4072" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4072" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4073" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4073" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4073" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4073" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4073" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4073" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4073" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4073" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4074" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4074" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4074" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4074" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4074" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4074" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4074">
+        <v>3.84</v>
+      </c>
+      <c r="H4074" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4074" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4075" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4075" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4075" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4075" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4075" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4075" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4075" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4075" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4076" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4076" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4076" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4076" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4076" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4076" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4076">
+        <v>17.41</v>
+      </c>
+      <c r="H4076" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4076" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4077" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4077" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4077" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4077" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4077" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4077" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4077">
+        <v>10.82</v>
+      </c>
+      <c r="H4077" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4077" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4078" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4078" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4078" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4078" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4078" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4078" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4078">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H4078" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4078" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4079" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4079" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4079" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4079" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4079" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4079" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4079">
+        <v>9.1</v>
+      </c>
+      <c r="H4079" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4079" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4080" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4080" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4080" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4080" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4080" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4080" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4080">
+        <v>2.14</v>
+      </c>
+      <c r="H4080" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4080" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4081" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4081" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4081" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4081" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4081" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4081">
+        <v>10.95</v>
+      </c>
+      <c r="H4081" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4081" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4082" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4082" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4082" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4082" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4082" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4082">
+        <v>6.12</v>
+      </c>
+      <c r="H4082" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4082" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4083" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4083" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4083" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4083" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4083" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4083">
+        <v>7.91</v>
+      </c>
+      <c r="H4083" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4083" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4084" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4084" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4084" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4084" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4084" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4084">
+        <v>14.64</v>
+      </c>
+      <c r="H4084" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4084" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4085" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4085" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4085" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4085" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4085" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4085">
+        <v>9.44</v>
+      </c>
+      <c r="H4085" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4085" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4086" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4086" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4086" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4086" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4086" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4086">
+        <v>13.57</v>
+      </c>
+      <c r="H4086" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4086" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4087" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4087" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4087" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4087" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4087" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4087" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4087">
+        <v>6.37</v>
+      </c>
+      <c r="H4087" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4087" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4088" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4088" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4088" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4088" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4088" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4088">
+        <v>11.52</v>
+      </c>
+      <c r="H4088" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4088" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4089" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4089" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4089" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4089" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4089" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4089">
+        <v>5.05</v>
+      </c>
+      <c r="H4089" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4089" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4090" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4090" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4090" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4090" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4090" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4090">
+        <v>2.83</v>
+      </c>
+      <c r="H4090" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4090" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4091" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4091" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4091" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4091" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4091" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4091">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="H4091" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4091" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4092" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4092" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4092" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4092" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4092" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4092">
+        <v>15.33</v>
+      </c>
+      <c r="H4092" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4092" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4093" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4093" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4093" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4093" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4093" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4093" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4093" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4094" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4094" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4094" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4094" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4094" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4094">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="H4094" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4094" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4095" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4095" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4095" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4095" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4095" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4095">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="H4095" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4095" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4096" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4096" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4096" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4096" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4096" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4096">
+        <v>7.81</v>
+      </c>
+      <c r="H4096" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4096" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4097" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4097" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4097" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4097" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4097" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4097">
+        <v>18.79</v>
+      </c>
+      <c r="H4097" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4097" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4098" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4098" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4098" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4098" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4098" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4098">
+        <v>4.79</v>
+      </c>
+      <c r="H4098" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4098" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4099" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4099" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4099" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4099" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4099" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4099">
+        <v>3.93</v>
+      </c>
+      <c r="H4099" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4099" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4100" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4100" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4100">
+        <v>11.74</v>
+      </c>
+      <c r="H4100" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4100" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4101" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4101" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4101">
+        <v>18.3</v>
+      </c>
+      <c r="H4101" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4101" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4102" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4102" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4102" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4102" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4102" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4103" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4103" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4103" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4103" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4104" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4104" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4104" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4104">
+        <v>12.77</v>
+      </c>
+      <c r="H4104" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4104" s="1">
+        <v>45436</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
